--- a/Code/Results/Cases/Case_0_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.67266199775313</v>
+        <v>13.70755662053669</v>
       </c>
       <c r="D2">
-        <v>6.43597508060056</v>
+        <v>8.387745344476244</v>
       </c>
       <c r="E2">
-        <v>9.448150749245528</v>
+        <v>14.33178780110785</v>
       </c>
       <c r="F2">
-        <v>24.73417311742503</v>
+        <v>40.1508528792226</v>
       </c>
       <c r="G2">
-        <v>2.109940992625472</v>
+        <v>3.706096110877508</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.258508617852117</v>
+        <v>11.02464558371742</v>
       </c>
       <c r="K2">
-        <v>24.07554347950592</v>
+        <v>20.20678921467036</v>
       </c>
       <c r="L2">
-        <v>5.56983274151936</v>
+        <v>9.739148067921626</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.89724428296795</v>
+        <v>30.84979118004521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.25404989622256</v>
+        <v>13.66056435596128</v>
       </c>
       <c r="D3">
-        <v>6.158248021819608</v>
+        <v>8.337492593953266</v>
       </c>
       <c r="E3">
-        <v>9.229764415875398</v>
+        <v>14.32582874220938</v>
       </c>
       <c r="F3">
-        <v>24.66959052491939</v>
+        <v>40.33034539568528</v>
       </c>
       <c r="G3">
-        <v>2.116948652657909</v>
+        <v>3.70868512356346</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.276184406437986</v>
+        <v>11.05092804880945</v>
       </c>
       <c r="K3">
-        <v>22.49402298151735</v>
+        <v>19.66432046836823</v>
       </c>
       <c r="L3">
-        <v>5.554935054244562</v>
+        <v>9.75040920902345</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.07377112900635</v>
+        <v>31.02074443741866</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.994804149207347</v>
+        <v>13.63440695200443</v>
       </c>
       <c r="D4">
-        <v>5.982897180279868</v>
+        <v>8.307245752697641</v>
       </c>
       <c r="E4">
-        <v>9.097705851207994</v>
+        <v>14.32426825826889</v>
       </c>
       <c r="F4">
-        <v>24.66266322080521</v>
+        <v>40.45138980958748</v>
       </c>
       <c r="G4">
-        <v>2.12136948559175</v>
+        <v>3.710357454841024</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.289988539216856</v>
+        <v>11.06839441863489</v>
       </c>
       <c r="K4">
-        <v>21.48914601575024</v>
+        <v>19.32448111909322</v>
       </c>
       <c r="L4">
-        <v>5.547307986689694</v>
+        <v>9.758115824532684</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.2062613383814</v>
+        <v>31.13359730611257</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.888747269311766</v>
+        <v>13.62443313087085</v>
       </c>
       <c r="D5">
-        <v>5.910310583938851</v>
+        <v>8.29508095480131</v>
       </c>
       <c r="E5">
-        <v>9.044453692697072</v>
+        <v>14.32416164181562</v>
       </c>
       <c r="F5">
-        <v>24.66768922630684</v>
+        <v>40.503431084345</v>
       </c>
       <c r="G5">
-        <v>2.123201758905756</v>
+        <v>3.71105980016774</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.296335998605882</v>
+        <v>11.07584654718379</v>
       </c>
       <c r="K5">
-        <v>21.06656998716092</v>
+        <v>19.18447524874149</v>
       </c>
       <c r="L5">
-        <v>5.544578076922259</v>
+        <v>9.761455976660468</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.26595162619221</v>
+        <v>31.18156419314714</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.871116258936507</v>
+        <v>13.622818597141</v>
       </c>
       <c r="D6">
-        <v>5.898192093024655</v>
+        <v>8.293070955201177</v>
       </c>
       <c r="E6">
-        <v>9.035646737641024</v>
+        <v>14.32417594985598</v>
       </c>
       <c r="F6">
-        <v>24.66898657017335</v>
+        <v>40.5122361665869</v>
       </c>
       <c r="G6">
-        <v>2.123507893225869</v>
+        <v>3.71117768581254</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.297433037557187</v>
+        <v>11.07710417554428</v>
       </c>
       <c r="K6">
-        <v>20.99561304909705</v>
+        <v>19.16114119390257</v>
       </c>
       <c r="L6">
-        <v>5.544147498974586</v>
+        <v>9.762022676909531</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.27619716670245</v>
+        <v>31.1896484119713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.993375294456959</v>
+        <v>13.63426965638532</v>
       </c>
       <c r="D7">
-        <v>5.981922706494334</v>
+        <v>8.307081031524662</v>
       </c>
       <c r="E7">
-        <v>9.096985325978084</v>
+        <v>14.32426467530731</v>
       </c>
       <c r="F7">
-        <v>24.66269973181916</v>
+        <v>40.45208067801611</v>
       </c>
       <c r="G7">
-        <v>2.121394070424883</v>
+        <v>3.710366842375739</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.290071245046118</v>
+        <v>11.06849356611914</v>
       </c>
       <c r="K7">
-        <v>21.48349990688769</v>
+        <v>19.32259885125709</v>
       </c>
       <c r="L7">
-        <v>5.547269644325053</v>
+        <v>9.758160062074033</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.2070437299215</v>
+        <v>31.13423620008501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.52886663516382</v>
+        <v>13.6907989025813</v>
       </c>
       <c r="D8">
-        <v>6.34126264402854</v>
+        <v>8.370296759764601</v>
       </c>
       <c r="E8">
-        <v>9.372460245105572</v>
+        <v>14.32929863225156</v>
       </c>
       <c r="F8">
-        <v>24.70488665128269</v>
+        <v>40.21048710769487</v>
       </c>
       <c r="G8">
-        <v>2.112333373388176</v>
+        <v>3.706971686816726</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.263978506361785</v>
+        <v>11.03343215763097</v>
       </c>
       <c r="K8">
-        <v>23.52844399366131</v>
+        <v>20.02125468013094</v>
       </c>
       <c r="L8">
-        <v>5.564378049989155</v>
+        <v>9.742866741976449</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.95288569157657</v>
+        <v>30.90709604144738</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.55585953937371</v>
+        <v>13.8226782393275</v>
       </c>
       <c r="D9">
-        <v>7.00458996789039</v>
+        <v>8.498731139873673</v>
       </c>
       <c r="E9">
-        <v>9.926605549063368</v>
+        <v>14.35574136882105</v>
       </c>
       <c r="F9">
-        <v>25.06371009703916</v>
+        <v>39.82313439128931</v>
       </c>
       <c r="G9">
-        <v>2.09545163108194</v>
+        <v>3.700966546785728</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.237160969966891</v>
+        <v>10.97520738617878</v>
       </c>
       <c r="K9">
-        <v>27.25536010114668</v>
+        <v>21.33028875073515</v>
       </c>
       <c r="L9">
-        <v>5.610176624042007</v>
+        <v>9.719143701334792</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.6627537536698</v>
+        <v>30.52447033322661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.2901835462654</v>
+        <v>13.93185172392558</v>
       </c>
       <c r="D10">
-        <v>7.463471847687296</v>
+        <v>8.595323649259392</v>
       </c>
       <c r="E10">
-        <v>10.3395533323266</v>
+        <v>14.38515521969775</v>
       </c>
       <c r="F10">
-        <v>25.51704081963495</v>
+        <v>39.5918165190733</v>
       </c>
       <c r="G10">
-        <v>2.083512641984182</v>
+        <v>3.696948048866713</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.233656005582202</v>
+        <v>10.93883150893425</v>
       </c>
       <c r="K10">
-        <v>29.72030483851209</v>
+        <v>22.24581352327941</v>
       </c>
       <c r="L10">
-        <v>5.65156050022749</v>
+        <v>9.705509716281178</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.60101578030378</v>
+        <v>30.28193736340311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.61892416892021</v>
+        <v>13.98405622388152</v>
       </c>
       <c r="D11">
-        <v>7.665571083467965</v>
+        <v>8.639643031232199</v>
       </c>
       <c r="E11">
-        <v>10.52819637195793</v>
+        <v>14.40067572352278</v>
       </c>
       <c r="F11">
-        <v>25.76869442736771</v>
+        <v>39.49827473104123</v>
       </c>
       <c r="G11">
-        <v>2.078163583544148</v>
+        <v>3.695204420259807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.235893102253746</v>
+        <v>10.92366951031722</v>
       </c>
       <c r="K11">
-        <v>30.78394402217848</v>
+        <v>22.65061265166675</v>
       </c>
       <c r="L11">
-        <v>5.672127900434772</v>
+        <v>9.70012593279259</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.61132803727946</v>
+        <v>30.18004734337851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.74259152251288</v>
+        <v>14.00417828042089</v>
       </c>
       <c r="D12">
-        <v>7.74111721217582</v>
+        <v>8.656470860748279</v>
       </c>
       <c r="E12">
-        <v>10.59971111573431</v>
+        <v>14.40685778876149</v>
       </c>
       <c r="F12">
-        <v>25.87084351944037</v>
+        <v>39.46454326261797</v>
       </c>
       <c r="G12">
-        <v>2.076148163609896</v>
+        <v>3.694556218798408</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.237318900230917</v>
+        <v>10.91812701026405</v>
       </c>
       <c r="K12">
-        <v>31.17855937112465</v>
+        <v>22.802098168058</v>
       </c>
       <c r="L12">
-        <v>5.680171918069913</v>
+        <v>9.69820445355535</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.62122066855375</v>
+        <v>30.14268369229568</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.71599471442617</v>
+        <v>13.99982911802702</v>
       </c>
       <c r="D13">
-        <v>7.724891148408067</v>
+        <v>8.652844834405432</v>
       </c>
       <c r="E13">
-        <v>10.58430606481768</v>
+        <v>14.4055128641039</v>
       </c>
       <c r="F13">
-        <v>25.84853416801791</v>
+        <v>39.47173257754324</v>
       </c>
       <c r="G13">
-        <v>2.076581796569165</v>
+        <v>3.694695284663287</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.236985635311172</v>
+        <v>10.91931183893567</v>
       </c>
       <c r="K13">
-        <v>31.09393271480825</v>
+        <v>22.76955509473996</v>
       </c>
       <c r="L13">
-        <v>5.678428041796629</v>
+        <v>9.698613071164838</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.61881634750472</v>
+        <v>30.15067626659748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.62911504510041</v>
+        <v>13.98570466696502</v>
       </c>
       <c r="D14">
-        <v>7.671806171698107</v>
+        <v>8.641026618526205</v>
       </c>
       <c r="E14">
-        <v>10.53407850771763</v>
+        <v>14.40117823499639</v>
       </c>
       <c r="F14">
-        <v>25.77695917173538</v>
+        <v>39.4954656786088</v>
       </c>
       <c r="G14">
-        <v>2.077997580201383</v>
+        <v>3.695150850746803</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.235998642109276</v>
+        <v>10.92320953813524</v>
       </c>
       <c r="K14">
-        <v>30.81657205717814</v>
+        <v>22.66311226169915</v>
       </c>
       <c r="L14">
-        <v>5.67278453348451</v>
+        <v>9.699965504364416</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.61201922442635</v>
+        <v>30.17694892842285</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.57579061993102</v>
+        <v>13.97709868195129</v>
       </c>
       <c r="D15">
-        <v>7.639161185971188</v>
+        <v>8.633793204317614</v>
       </c>
       <c r="E15">
-        <v>10.50332215786652</v>
+        <v>14.39856275072049</v>
       </c>
       <c r="F15">
-        <v>25.73401913015735</v>
+        <v>39.5102233809785</v>
       </c>
       <c r="G15">
-        <v>2.078866059420256</v>
+        <v>3.695431468457012</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.235470287316758</v>
+        <v>10.92562290302735</v>
       </c>
       <c r="K15">
-        <v>30.64562178166952</v>
+        <v>22.59767465554922</v>
       </c>
       <c r="L15">
-        <v>5.669361165637626</v>
+        <v>9.700809164041418</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.60864946316601</v>
+        <v>30.19320074692003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.26858756856921</v>
+        <v>13.92849015121183</v>
       </c>
       <c r="D16">
-        <v>7.450127777150038</v>
+        <v>8.592434092387926</v>
       </c>
       <c r="E16">
-        <v>10.32723793303889</v>
+        <v>14.38418373409472</v>
       </c>
       <c r="F16">
-        <v>25.50153665466873</v>
+        <v>39.59816573543603</v>
       </c>
       <c r="G16">
-        <v>2.083863729034404</v>
+        <v>3.697063692029765</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.233589237771742</v>
+        <v>10.93985024333993</v>
       </c>
       <c r="K16">
-        <v>29.64964405946423</v>
+        <v>22.21911310390175</v>
       </c>
       <c r="L16">
-        <v>5.650251850583541</v>
+        <v>9.705877989726185</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.60115423194235</v>
+        <v>30.28876647554971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.07872361209151</v>
+        <v>13.89931280488355</v>
       </c>
       <c r="D17">
-        <v>7.332436100187515</v>
+        <v>8.567151972369546</v>
       </c>
       <c r="E17">
-        <v>10.21939241220442</v>
+        <v>14.3759087553029</v>
       </c>
       <c r="F17">
-        <v>25.37078591169291</v>
+        <v>39.65511599677351</v>
       </c>
       <c r="G17">
-        <v>2.086949524384578</v>
+        <v>3.698086580649607</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.233435837597346</v>
+        <v>10.94893297497287</v>
       </c>
       <c r="K17">
-        <v>29.02396359096767</v>
+        <v>21.98379501556229</v>
       </c>
       <c r="L17">
-        <v>5.638978539170174</v>
+        <v>9.709196847101238</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.60672050974316</v>
+        <v>30.34955895031322</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.96902164358126</v>
+        <v>13.88277069013176</v>
       </c>
       <c r="D18">
-        <v>7.264118307780803</v>
+        <v>8.552646605960559</v>
       </c>
       <c r="E18">
-        <v>10.1574386460119</v>
+        <v>14.37135082311251</v>
       </c>
       <c r="F18">
-        <v>25.29983976390119</v>
+        <v>39.68897160390625</v>
       </c>
       <c r="G18">
-        <v>2.088732221476571</v>
+        <v>3.698682867683541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.23370650089302</v>
+        <v>10.95428755185344</v>
       </c>
       <c r="K18">
-        <v>28.65865166959487</v>
+        <v>21.84735375880152</v>
       </c>
       <c r="L18">
-        <v>5.632658037315009</v>
+        <v>9.711182823051857</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.61350785687491</v>
+        <v>30.38531914987602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.93179503892838</v>
+        <v>13.87721137869135</v>
       </c>
       <c r="D19">
-        <v>7.24088080012492</v>
+        <v>8.547741849489594</v>
       </c>
       <c r="E19">
-        <v>10.13647637740098</v>
+        <v>14.36984229942907</v>
       </c>
       <c r="F19">
-        <v>25.27653991164021</v>
+        <v>39.70062302128877</v>
       </c>
       <c r="G19">
-        <v>2.089337204642938</v>
+        <v>3.698886127377109</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.233858964768544</v>
+        <v>10.9561229278343</v>
       </c>
       <c r="K19">
-        <v>28.53402559002542</v>
+        <v>21.80097342129509</v>
       </c>
       <c r="L19">
-        <v>5.630545972829388</v>
+        <v>9.711868488292385</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.61640767892141</v>
+        <v>30.39756311491619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.09898687996326</v>
+        <v>13.90239403746365</v>
       </c>
       <c r="D20">
-        <v>7.345029462439144</v>
+        <v>8.569839614776805</v>
       </c>
       <c r="E20">
-        <v>10.23086513964907</v>
+        <v>14.37676879495152</v>
       </c>
       <c r="F20">
-        <v>25.38426146373321</v>
+        <v>39.64893969256984</v>
       </c>
       <c r="G20">
-        <v>2.086620237383165</v>
+        <v>3.697976870233227</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.233414827403028</v>
+        <v>10.94795260529328</v>
       </c>
       <c r="K20">
-        <v>29.09113012434289</v>
+        <v>22.00895903383505</v>
       </c>
       <c r="L20">
-        <v>5.640161633409674</v>
+        <v>9.708835577127415</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.60575349513453</v>
+        <v>30.34300526866667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.65465631881626</v>
+        <v>13.98984386965572</v>
       </c>
       <c r="D21">
-        <v>7.687425418654355</v>
+        <v>8.644496768190052</v>
       </c>
       <c r="E21">
-        <v>10.54882963506826</v>
+        <v>14.40244317334163</v>
       </c>
       <c r="F21">
-        <v>25.79779402054878</v>
+        <v>39.48844872287693</v>
       </c>
       <c r="G21">
-        <v>2.077581468525478</v>
+        <v>3.695016712804577</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.23627261280355</v>
+        <v>10.92205928984806</v>
       </c>
       <c r="K21">
-        <v>30.89826002658207</v>
+        <v>22.694426967707</v>
       </c>
       <c r="L21">
-        <v>5.67443518929471</v>
+        <v>9.699565083556115</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.61384946646981</v>
+        <v>30.16919885255355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.01302701788049</v>
+        <v>14.04905098762871</v>
       </c>
       <c r="D22">
-        <v>7.90545545185848</v>
+        <v>8.693547654862629</v>
       </c>
       <c r="E22">
-        <v>10.75709131168784</v>
+        <v>14.42099787691927</v>
       </c>
       <c r="F22">
-        <v>26.10814436575685</v>
+        <v>39.39341837903889</v>
       </c>
       <c r="G22">
-        <v>2.071732416692461</v>
+        <v>3.693152418895568</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.241527215797411</v>
+        <v>10.90629644608893</v>
       </c>
       <c r="K22">
-        <v>32.03181735494408</v>
+        <v>23.13186055570903</v>
       </c>
       <c r="L22">
-        <v>5.69832737430523</v>
+        <v>9.694189451534694</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.65425933659636</v>
+        <v>30.06271975926187</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.82221050753743</v>
+        <v>14.01726724994086</v>
       </c>
       <c r="D23">
-        <v>7.789621653013</v>
+        <v>8.667347790229927</v>
       </c>
       <c r="E23">
-        <v>10.64590621355919</v>
+        <v>14.41093349752751</v>
       </c>
       <c r="F23">
-        <v>25.9387356141258</v>
+        <v>39.44323232757365</v>
       </c>
       <c r="G23">
-        <v>2.074849412710599</v>
+        <v>3.694141012779194</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.238403267594233</v>
+        <v>10.9146033125996</v>
       </c>
       <c r="K23">
-        <v>31.43111790006272</v>
+        <v>22.89939812750949</v>
       </c>
       <c r="L23">
-        <v>5.685437310720168</v>
+        <v>9.696996164382506</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.62932356710867</v>
+        <v>30.11889666202497</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.0898275547699</v>
+        <v>13.90100028764245</v>
       </c>
       <c r="D24">
-        <v>7.339338042161153</v>
+        <v>8.568624438560304</v>
       </c>
       <c r="E24">
-        <v>10.22567816721064</v>
+        <v>14.37637934950845</v>
       </c>
       <c r="F24">
-        <v>25.37815603370433</v>
+        <v>39.6517285298856</v>
       </c>
       <c r="G24">
-        <v>2.086769081026702</v>
+        <v>3.698026444718706</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.233423210434279</v>
+        <v>10.94839541676007</v>
       </c>
       <c r="K24">
-        <v>29.0607815869077</v>
+        <v>21.99758596532736</v>
       </c>
       <c r="L24">
-        <v>5.639626256420727</v>
+        <v>9.708998664534754</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.60617954433993</v>
+        <v>30.34596566603908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.28120347708938</v>
+        <v>13.78480302128825</v>
       </c>
       <c r="D25">
-        <v>6.829946363448192</v>
+        <v>8.463558051262082</v>
       </c>
       <c r="E25">
-        <v>9.775492964387849</v>
+        <v>14.3468249272696</v>
       </c>
       <c r="F25">
-        <v>24.93481252085302</v>
+        <v>39.91861092699267</v>
       </c>
       <c r="G25">
-        <v>2.099931242225841</v>
+        <v>3.702521676984921</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.241673244810094</v>
+        <v>10.98983320408868</v>
       </c>
       <c r="K25">
-        <v>26.29563385668314</v>
+        <v>20.9836730909291</v>
       </c>
       <c r="L25">
-        <v>5.596448234449842</v>
+        <v>9.72489306215653</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.71647820952079</v>
+        <v>30.62122745328378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_254/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.70755662053669</v>
+        <v>10.67266199775308</v>
       </c>
       <c r="D2">
-        <v>8.387745344476244</v>
+        <v>6.435975080600547</v>
       </c>
       <c r="E2">
-        <v>14.33178780110785</v>
+        <v>9.44815074924545</v>
       </c>
       <c r="F2">
-        <v>40.1508528792226</v>
+        <v>24.7341731174246</v>
       </c>
       <c r="G2">
-        <v>3.706096110877508</v>
+        <v>2.109940992625071</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.02464558371742</v>
+        <v>6.258508617852068</v>
       </c>
       <c r="K2">
-        <v>20.20678921467036</v>
+        <v>24.07554347950597</v>
       </c>
       <c r="L2">
-        <v>9.739148067921626</v>
+        <v>5.569832741519274</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.84979118004521</v>
+        <v>17.8972442829676</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.66056435596128</v>
+        <v>10.25404989622262</v>
       </c>
       <c r="D3">
-        <v>8.337492593953266</v>
+        <v>6.158248021819726</v>
       </c>
       <c r="E3">
-        <v>14.32582874220938</v>
+        <v>9.229764415875394</v>
       </c>
       <c r="F3">
-        <v>40.33034539568528</v>
+        <v>24.66959052491948</v>
       </c>
       <c r="G3">
-        <v>3.70868512356346</v>
+        <v>2.11694865265791</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.05092804880945</v>
+        <v>6.276184406437872</v>
       </c>
       <c r="K3">
-        <v>19.66432046836823</v>
+        <v>22.49402298151736</v>
       </c>
       <c r="L3">
-        <v>9.75040920902345</v>
+        <v>5.554935054244503</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.02074443741866</v>
+        <v>18.07377112900633</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.63440695200443</v>
+        <v>9.994804149207507</v>
       </c>
       <c r="D4">
-        <v>8.307245752697641</v>
+        <v>5.982897180279819</v>
       </c>
       <c r="E4">
-        <v>14.32426825826889</v>
+        <v>9.097705851207994</v>
       </c>
       <c r="F4">
-        <v>40.45138980958748</v>
+        <v>24.66266322080504</v>
       </c>
       <c r="G4">
-        <v>3.710357454841024</v>
+        <v>2.121369485592018</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.06839441863489</v>
+        <v>6.289988539216972</v>
       </c>
       <c r="K4">
-        <v>19.32448111909322</v>
+        <v>21.48914601575024</v>
       </c>
       <c r="L4">
-        <v>9.758115824532684</v>
+        <v>5.547307986689665</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.13359730611257</v>
+        <v>18.20626133838129</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.62443313087085</v>
+        <v>9.888747269311811</v>
       </c>
       <c r="D5">
-        <v>8.29508095480131</v>
+        <v>5.910310583938818</v>
       </c>
       <c r="E5">
-        <v>14.32416164181562</v>
+        <v>9.044453692697124</v>
       </c>
       <c r="F5">
-        <v>40.503431084345</v>
+        <v>24.66768922630676</v>
       </c>
       <c r="G5">
-        <v>3.71105980016774</v>
+        <v>2.12320175890589</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.07584654718379</v>
+        <v>6.296335998605969</v>
       </c>
       <c r="K5">
-        <v>19.18447524874149</v>
+        <v>21.06656998716095</v>
       </c>
       <c r="L5">
-        <v>9.761455976660468</v>
+        <v>5.544578076922265</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.18156419314714</v>
+        <v>18.26595162619219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.622818597141</v>
+        <v>9.871116258936476</v>
       </c>
       <c r="D6">
-        <v>8.293070955201177</v>
+        <v>5.89819209302463</v>
       </c>
       <c r="E6">
-        <v>14.32417594985598</v>
+        <v>9.035646737641075</v>
       </c>
       <c r="F6">
-        <v>40.5122361665869</v>
+        <v>24.66898657017319</v>
       </c>
       <c r="G6">
-        <v>3.71117768581254</v>
+        <v>2.123507893226002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.07710417554428</v>
+        <v>6.297433037557246</v>
       </c>
       <c r="K6">
-        <v>19.16114119390257</v>
+        <v>20.99561304909702</v>
       </c>
       <c r="L6">
-        <v>9.762022676909531</v>
+        <v>5.544147498974651</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.1896484119713</v>
+        <v>18.27619716670235</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.63426965638532</v>
+        <v>9.993375294457033</v>
       </c>
       <c r="D7">
-        <v>8.307081031524662</v>
+        <v>5.981922706494398</v>
       </c>
       <c r="E7">
-        <v>14.32426467530731</v>
+        <v>9.096985325978135</v>
       </c>
       <c r="F7">
-        <v>40.45208067801611</v>
+        <v>24.66269973181913</v>
       </c>
       <c r="G7">
-        <v>3.710366842375739</v>
+        <v>2.121394070424748</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.06849356611914</v>
+        <v>6.29007124504612</v>
       </c>
       <c r="K7">
-        <v>19.32259885125709</v>
+        <v>21.48349990688769</v>
       </c>
       <c r="L7">
-        <v>9.758160062074033</v>
+        <v>5.547269644325088</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.13423620008501</v>
+        <v>18.20704372992139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.6907989025813</v>
+        <v>10.52886663516383</v>
       </c>
       <c r="D8">
-        <v>8.370296759764601</v>
+        <v>6.341262644028525</v>
       </c>
       <c r="E8">
-        <v>14.32929863225156</v>
+        <v>9.372460245105565</v>
       </c>
       <c r="F8">
-        <v>40.21048710769487</v>
+        <v>24.70488665128267</v>
       </c>
       <c r="G8">
-        <v>3.706971686816726</v>
+        <v>2.112333373388443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.03343215763097</v>
+        <v>6.263978506361783</v>
       </c>
       <c r="K8">
-        <v>20.02125468013094</v>
+        <v>23.52844399366129</v>
       </c>
       <c r="L8">
-        <v>9.742866741976449</v>
+        <v>5.564378049989148</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.90709604144738</v>
+        <v>17.95288569157657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.8226782393275</v>
+        <v>11.55585953937362</v>
       </c>
       <c r="D9">
-        <v>8.498731139873673</v>
+        <v>7.004589967890477</v>
       </c>
       <c r="E9">
-        <v>14.35574136882105</v>
+        <v>9.926605549063334</v>
       </c>
       <c r="F9">
-        <v>39.82313439128931</v>
+        <v>25.06371009703917</v>
       </c>
       <c r="G9">
-        <v>3.700966546785728</v>
+        <v>2.095451631081806</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.97520738617878</v>
+        <v>6.237160969966806</v>
       </c>
       <c r="K9">
-        <v>21.33028875073515</v>
+        <v>27.25536010114672</v>
       </c>
       <c r="L9">
-        <v>9.719143701334792</v>
+        <v>5.610176624042032</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.52447033322661</v>
+        <v>17.66275375366969</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.93185172392558</v>
+        <v>12.29018354626546</v>
       </c>
       <c r="D10">
-        <v>8.595323649259392</v>
+        <v>7.463471847687354</v>
       </c>
       <c r="E10">
-        <v>14.38515521969775</v>
+        <v>10.33955333232666</v>
       </c>
       <c r="F10">
-        <v>39.5918165190733</v>
+        <v>25.51704081963494</v>
       </c>
       <c r="G10">
-        <v>3.696948048866713</v>
+        <v>2.083512641983913</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.93883150893425</v>
+        <v>6.233656005582203</v>
       </c>
       <c r="K10">
-        <v>22.24581352327941</v>
+        <v>29.7203048385121</v>
       </c>
       <c r="L10">
-        <v>9.705509716281178</v>
+        <v>5.651560500227439</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.28193736340311</v>
+        <v>17.60101578030375</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.98405622388152</v>
+        <v>12.61892416892024</v>
       </c>
       <c r="D11">
-        <v>8.639643031232199</v>
+        <v>7.665571083468007</v>
       </c>
       <c r="E11">
-        <v>14.40067572352278</v>
+        <v>10.52819637195791</v>
       </c>
       <c r="F11">
-        <v>39.49827473104123</v>
+        <v>25.76869442736761</v>
       </c>
       <c r="G11">
-        <v>3.695204420259807</v>
+        <v>2.078163583543882</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.92366951031722</v>
+        <v>6.235893102253705</v>
       </c>
       <c r="K11">
-        <v>22.65061265166675</v>
+        <v>30.78394402217851</v>
       </c>
       <c r="L11">
-        <v>9.70012593279259</v>
+        <v>5.672127900434726</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.18004734337851</v>
+        <v>17.61132803727933</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.00417828042089</v>
+        <v>12.7425915225128</v>
       </c>
       <c r="D12">
-        <v>8.656470860748279</v>
+        <v>7.741117212175827</v>
       </c>
       <c r="E12">
-        <v>14.40685778876149</v>
+        <v>10.59971111573429</v>
       </c>
       <c r="F12">
-        <v>39.46454326261797</v>
+        <v>25.87084351944038</v>
       </c>
       <c r="G12">
-        <v>3.694556218798408</v>
+        <v>2.076148163609763</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.91812701026405</v>
+        <v>6.237318900230894</v>
       </c>
       <c r="K12">
-        <v>22.802098168058</v>
+        <v>31.17855937112465</v>
       </c>
       <c r="L12">
-        <v>9.69820445355535</v>
+        <v>5.680171918069891</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.14268369229568</v>
+        <v>17.62122066855375</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.99982911802702</v>
+        <v>12.71599471442616</v>
       </c>
       <c r="D13">
-        <v>8.652844834405432</v>
+        <v>7.724891148407965</v>
       </c>
       <c r="E13">
-        <v>14.4055128641039</v>
+        <v>10.5843060648177</v>
       </c>
       <c r="F13">
-        <v>39.47173257754324</v>
+        <v>25.84853416801771</v>
       </c>
       <c r="G13">
-        <v>3.694695284663287</v>
+        <v>2.076581796568898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.91931183893567</v>
+        <v>6.236985635311248</v>
       </c>
       <c r="K13">
-        <v>22.76955509473996</v>
+        <v>31.09393271480829</v>
       </c>
       <c r="L13">
-        <v>9.698613071164838</v>
+        <v>5.678428041796613</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.15067626659748</v>
+        <v>17.61881634750456</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.98570466696502</v>
+        <v>12.6291150451005</v>
       </c>
       <c r="D14">
-        <v>8.641026618526205</v>
+        <v>7.671806171698085</v>
       </c>
       <c r="E14">
-        <v>14.40117823499639</v>
+        <v>10.53407850771766</v>
       </c>
       <c r="F14">
-        <v>39.4954656786088</v>
+        <v>25.77695917173538</v>
       </c>
       <c r="G14">
-        <v>3.695150850746803</v>
+        <v>2.077997580201517</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.92320953813524</v>
+        <v>6.23599864210932</v>
       </c>
       <c r="K14">
-        <v>22.66311226169915</v>
+        <v>30.81657205717813</v>
       </c>
       <c r="L14">
-        <v>9.699965504364416</v>
+        <v>5.672784533484452</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.17694892842285</v>
+        <v>17.61201922442634</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.97709868195129</v>
+        <v>12.57579061993105</v>
       </c>
       <c r="D15">
-        <v>8.633793204317614</v>
+        <v>7.639161185971176</v>
       </c>
       <c r="E15">
-        <v>14.39856275072049</v>
+        <v>10.50332215786649</v>
       </c>
       <c r="F15">
-        <v>39.5102233809785</v>
+        <v>25.7340191301572</v>
       </c>
       <c r="G15">
-        <v>3.695431468457012</v>
+        <v>2.078866059420525</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.92562290302735</v>
+        <v>6.235470287316726</v>
       </c>
       <c r="K15">
-        <v>22.59767465554922</v>
+        <v>30.64562178166961</v>
       </c>
       <c r="L15">
-        <v>9.700809164041418</v>
+        <v>5.669361165637574</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.19320074692003</v>
+        <v>17.60864946316585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.92849015121183</v>
+        <v>12.2685875685693</v>
       </c>
       <c r="D16">
-        <v>8.592434092387926</v>
+        <v>7.450127777150022</v>
       </c>
       <c r="E16">
-        <v>14.38418373409472</v>
+        <v>10.32723793303895</v>
       </c>
       <c r="F16">
-        <v>39.59816573543603</v>
+        <v>25.50153665466888</v>
       </c>
       <c r="G16">
-        <v>3.697063692029765</v>
+        <v>2.083863729034539</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.93985024333993</v>
+        <v>6.233589237771803</v>
       </c>
       <c r="K16">
-        <v>22.21911310390175</v>
+        <v>29.64964405946419</v>
       </c>
       <c r="L16">
-        <v>9.705877989726185</v>
+        <v>5.650251850583565</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.28876647554971</v>
+        <v>17.60115423194251</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.89931280488355</v>
+        <v>12.07872361209154</v>
       </c>
       <c r="D17">
-        <v>8.567151972369546</v>
+        <v>7.33243610018741</v>
       </c>
       <c r="E17">
-        <v>14.3759087553029</v>
+        <v>10.21939241220441</v>
       </c>
       <c r="F17">
-        <v>39.65511599677351</v>
+        <v>25.3707859116929</v>
       </c>
       <c r="G17">
-        <v>3.698086580649607</v>
+        <v>2.086949524384578</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.94893297497287</v>
+        <v>6.233435837597471</v>
       </c>
       <c r="K17">
-        <v>21.98379501556229</v>
+        <v>29.02396359096769</v>
       </c>
       <c r="L17">
-        <v>9.709196847101238</v>
+        <v>5.638978539170163</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.34955895031322</v>
+        <v>17.60672050974319</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.88277069013176</v>
+        <v>11.96902164358125</v>
       </c>
       <c r="D18">
-        <v>8.552646605960559</v>
+        <v>7.264118307780798</v>
       </c>
       <c r="E18">
-        <v>14.37135082311251</v>
+        <v>10.15743864601183</v>
       </c>
       <c r="F18">
-        <v>39.68897160390625</v>
+        <v>25.29983976390104</v>
       </c>
       <c r="G18">
-        <v>3.698682867683541</v>
+        <v>2.088732221476706</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.95428755185344</v>
+        <v>6.233706500892987</v>
       </c>
       <c r="K18">
-        <v>21.84735375880152</v>
+        <v>28.65865166959487</v>
       </c>
       <c r="L18">
-        <v>9.711182823051857</v>
+        <v>5.632658037314985</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.38531914987602</v>
+        <v>17.61350785687475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.87721137869135</v>
+        <v>11.93179503892827</v>
       </c>
       <c r="D19">
-        <v>8.547741849489594</v>
+        <v>7.240880800124912</v>
       </c>
       <c r="E19">
-        <v>14.36984229942907</v>
+        <v>10.13647637740094</v>
       </c>
       <c r="F19">
-        <v>39.70062302128877</v>
+        <v>25.27653991164019</v>
       </c>
       <c r="G19">
-        <v>3.698886127377109</v>
+        <v>2.089337204642937</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.9561229278343</v>
+        <v>6.233858964768519</v>
       </c>
       <c r="K19">
-        <v>21.80097342129509</v>
+        <v>28.53402559002541</v>
       </c>
       <c r="L19">
-        <v>9.711868488292385</v>
+        <v>5.630545972829367</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.39756311491619</v>
+        <v>17.6164076789214</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.90239403746365</v>
+        <v>12.09898687996342</v>
       </c>
       <c r="D20">
-        <v>8.569839614776805</v>
+        <v>7.345029462439139</v>
       </c>
       <c r="E20">
-        <v>14.37676879495152</v>
+        <v>10.23086513964911</v>
       </c>
       <c r="F20">
-        <v>39.64893969256984</v>
+        <v>25.38426146373307</v>
       </c>
       <c r="G20">
-        <v>3.697976870233227</v>
+        <v>2.08662023738343</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.94795260529328</v>
+        <v>6.233414827403089</v>
       </c>
       <c r="K20">
-        <v>22.00895903383505</v>
+        <v>29.09113012434291</v>
       </c>
       <c r="L20">
-        <v>9.708835577127415</v>
+        <v>5.640161633409601</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.34300526866667</v>
+        <v>17.60575349513439</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.98984386965572</v>
+        <v>12.65465631881624</v>
       </c>
       <c r="D21">
-        <v>8.644496768190052</v>
+        <v>7.687425418654373</v>
       </c>
       <c r="E21">
-        <v>14.40244317334163</v>
+        <v>10.54882963506831</v>
       </c>
       <c r="F21">
-        <v>39.48844872287693</v>
+        <v>25.79779402054882</v>
       </c>
       <c r="G21">
-        <v>3.695016712804577</v>
+        <v>2.077581468525213</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.92205928984806</v>
+        <v>6.236272612803584</v>
       </c>
       <c r="K21">
-        <v>22.694426967707</v>
+        <v>30.89826002658208</v>
       </c>
       <c r="L21">
-        <v>9.699565083556115</v>
+        <v>5.674435189294835</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.16919885255355</v>
+        <v>17.61384946646981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.04905098762871</v>
+        <v>13.01302701788049</v>
       </c>
       <c r="D22">
-        <v>8.693547654862629</v>
+        <v>7.905455451858439</v>
       </c>
       <c r="E22">
-        <v>14.42099787691927</v>
+        <v>10.75709131168779</v>
       </c>
       <c r="F22">
-        <v>39.39341837903889</v>
+        <v>26.10814436575683</v>
       </c>
       <c r="G22">
-        <v>3.693152418895568</v>
+        <v>2.071732416692463</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.90629644608893</v>
+        <v>6.241527215797366</v>
       </c>
       <c r="K22">
-        <v>23.13186055570903</v>
+        <v>32.03181735494406</v>
       </c>
       <c r="L22">
-        <v>9.694189451534694</v>
+        <v>5.698327374305136</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.06271975926187</v>
+        <v>17.65425933659635</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.01726724994086</v>
+        <v>12.82221050753743</v>
       </c>
       <c r="D23">
-        <v>8.667347790229927</v>
+        <v>7.789621653012993</v>
       </c>
       <c r="E23">
-        <v>14.41093349752751</v>
+        <v>10.64590621355916</v>
       </c>
       <c r="F23">
-        <v>39.44323232757365</v>
+        <v>25.9387356141259</v>
       </c>
       <c r="G23">
-        <v>3.694141012779194</v>
+        <v>2.074849412710329</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.9146033125996</v>
+        <v>6.238403267594187</v>
       </c>
       <c r="K23">
-        <v>22.89939812750949</v>
+        <v>31.43111790006268</v>
       </c>
       <c r="L23">
-        <v>9.696996164382506</v>
+        <v>5.685437310720139</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.11889666202497</v>
+        <v>17.62932356710876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.90100028764245</v>
+        <v>12.0898275547699</v>
       </c>
       <c r="D24">
-        <v>8.568624438560304</v>
+        <v>7.339338042161196</v>
       </c>
       <c r="E24">
-        <v>14.37637934950845</v>
+        <v>10.22567816721068</v>
       </c>
       <c r="F24">
-        <v>39.6517285298856</v>
+        <v>25.37815603370429</v>
       </c>
       <c r="G24">
-        <v>3.698026444718706</v>
+        <v>2.0867690810263</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.94839541676007</v>
+        <v>6.233423210434323</v>
       </c>
       <c r="K24">
-        <v>21.99758596532736</v>
+        <v>29.06078158690771</v>
       </c>
       <c r="L24">
-        <v>9.708998664534754</v>
+        <v>5.639626256420806</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.34596566603908</v>
+        <v>17.60617954433989</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.78480302128825</v>
+        <v>11.28120347708944</v>
       </c>
       <c r="D25">
-        <v>8.463558051262082</v>
+        <v>6.829946363448192</v>
       </c>
       <c r="E25">
-        <v>14.3468249272696</v>
+        <v>9.77549296438788</v>
       </c>
       <c r="F25">
-        <v>39.91861092699267</v>
+        <v>24.93481252085292</v>
       </c>
       <c r="G25">
-        <v>3.702521676984921</v>
+        <v>2.099931242225706</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.98983320408868</v>
+        <v>6.241673244810121</v>
       </c>
       <c r="K25">
-        <v>20.9836730909291</v>
+        <v>26.29563385668315</v>
       </c>
       <c r="L25">
-        <v>9.72489306215653</v>
+        <v>5.596448234449842</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.62122745328378</v>
+        <v>17.71647820952073</v>
       </c>
     </row>
   </sheetData>
